--- a/Unity/Assets/Hellgate/Excel/HellgateSample.xlsx
+++ b/Unity/Assets/Hellgate/Excel/HellgateSample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="18315" windowHeight="10530"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="18315" windowHeight="10530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,15 @@
     <sheet name="avatar" sheetId="3" r:id="rId3"/>
     <sheet name="monster" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>idx</t>
   </si>
@@ -139,6 +142,10 @@
   </si>
   <si>
     <t>Hellgate Test Data</t>
+  </si>
+  <si>
+    <t>monster</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -560,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -600,15 +607,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -627,8 +634,11 @@
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -647,8 +657,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -667,8 +680,11 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -687,8 +703,11 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -707,8 +726,11 @@
       <c r="F5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -725,6 +747,9 @@
         <v>50</v>
       </c>
       <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
         <v>5</v>
       </c>
     </row>
